--- a/deuChatbot/research_result/results/bleu_score/bleu_version_1(2000_300).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_1(2000_300).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6074,61 +6074,3394 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 중에서 선택해야 합니다. 각 종목별로 배점이 다르며, 전체 실기 점수는 700점으로 구성됩니다.
+### 디자인조형학과 실기종목별 정보:
+1. **시각디자인**
+   - **배점**: 490점 (70%)
+2. **산업디자인**
+   - **배점**: 210점 (30%)
+3. **공예디자인**
+   - **배점**: 210점 (30%)
+### 준비물:
+- 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+### 실기주제:
+- 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+### 화지크기:
+- 켄트지3절 (A4 크기)
+### 시간:
+- **5시간**
+### 예시 주제:
+- **주제A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- **주제B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+### 주의사항:
+- 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+- 제공된 사물은 모두 1회 이상 표현해야 합니다.
+- 제공된 사물의 색상은 변경하지 마세요.
+이러한 정보를 바탕으로 디자인조형학과의 실기시험을 준비할 수 있습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3545003198956866</v>
+        <v>0.5371528007147928</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 다음과 같습니다:
+  - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- **화지크기**: 켄트지3절로 준비해야 합니다.
+- **시간**: 시험 시간은 5시간입니다.
+주의사항: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2835057460548753</v>
+        <v>0.5321184118995693</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남)
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.8535155609230237</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 하나씩 선택하여 연결된 주제로 만드는 것이 요구됩니다. 제공된 주제들은 다음과 같습니다:
+1. 주제A:
+   - 잠자리
+   - 무궁화
+   - 피망 (오이)
+   - 고양이
+   - 양파
+   - 달팽이
+   - 오렌지
+2. 주제B:
+   - 악보
+   - 줄자
+   - 스카치테이프
+   - 자물쇠
+   - 반코팅장갑
+   - 저울
+   - 얼음
+학생들은 이 주제들 중에서 각각 하나씩 선택하여 연결된 주제를 만드는 것이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.3901716292977978</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>네, 학생부교과 전형에서 출결 점수가 반영됩니다. 
+특히 나군 학생부종합(조기취업형계약학과전형)의 경우 출결이 전형 요소 중 하나로 포함되어 있습니다. 출결 점수는 다음과 같이 반영됩니다:
+- 결석일수 0~2일: 120점
+- 결석일수 3~6일: 90점 
+- 결석일수 7~12일: 60점
+- 결석일수 13~20일: 30점
+- 결석일수 21일 이상: 0점
+이외에도 다른 전형에서도 출결이 고려될 수 있으므로, 학생부에 정확하게 기재되어 있는 출결 내역을 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0005906061168207943</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /라는 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.3857440034766151</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2353595574296185</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 나군 일반학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5745637912755202</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语编写的回答：
+ 수능 영어 등급별 점수는 다음과 같습니다:
+1등급: 139점  
+2등급: 131점  
+3등급: 123점  
+4등급: 115점  
+5등급: 107점  
+6등급: 99점  
+7등급: 91점  
+8등급: 83점  
+9등급: 75점  
+이 점수들은 등급별로 대략적인 평균 점수를 나타내며, 실제 수능 성적 발표 시에는 정확한 점수가 공개됩니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5727088274513192</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+표에서 다음과 같이 명시되어 있습니다:
+- "농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."
+따라서 예술고 학생은 농어촌학생전형으로 지원하기 위해서는 일반 고등학교를 졸업하거나 재수강한 경력을 가지고 있어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.4683326190666119</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 해당 등급의 배점은 275점입니다.
+참조할 수 있는 표는 다음과 같습니다:
+- 레저스포츠학과 기록별 배점표
+  - 4등급 / 218~221cm / 275점
+따라서, 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이고, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.1628907795936349</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.07332136597929477</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9472652833627722</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 17일(수)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **내용**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)의 실기고사
+참고로, 이날에는 대기실 및 입실시간 안내가 이루어지며, 해당 정보는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+더 자세한 내용은 학교의 공식 웹사이트를 참조하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>4.344485711152465e-06</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 공과대학 응용화학과의 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 
+표 "전형요소 반영비율"에서는 수능 최저기준이 명시되어 있지 않으며, 수능 최저기준에 대한 정보는 별도로 언급되지 않았습니다.
+다만, 동의대학교의 일반학생전형은 수능 위주로 운영되며, 각 모집단위별로 수능 성적을 100% 반영한다고 표에서 확인할 수 있습니다. 
+수능 최저기준에 대한 자세한 정보는 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하는 것이 가장 정확할 것입니다.
+https://ipsi.deu.ac.kr/main.do 에 접속하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>4.449656387705351e-09</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과와 전공은 다음과 같습니다:
+1. 라이프융합학부 (신설)
+   - 스타트업창업투자학
+   - 뷰티비즈니스학 
+   - 라이프생활문화학
+2. 경기지도학과 (신설)
+3. 스마트항만물류학과 (신설)
+4. 창업투자경영학과 (신설)
+5. 심리학과 (신설)
+6. 디지털콘텐츠학과 (ICT융합공과대학 내 신설 전공)
+7. 게임공학과 (ICT융합공과대학 내 신설 전공)
+8. 영화학과 (ICT융합공과대학 내 신설 전공)
+위와 같이 2024학년도에 동의대학교에서는 여러 학과와 전공이 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.229947877584074</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가: 70%
+- 면접 평가: 30%
+이 비율은 고정되어 있으며, 이에 따라 지원자의 학생부 내용과 면접 성적을 종합적으로 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.2755489008640399</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 일부 학과에서 수능 가산점을 적용합니다. 특히, 공과대학과 ICT융합공과대학의 모집단위에서는 수학(미적분 또는 기하) 응시자에게 수학 점수에 10%의 가산점이 부여됩니다.
+상세 내용은 다음과 같습니다:
+- **공과대학** 및 **ICT융합공과대학** 모집단위에서 수학(미적분 또는 기하)을 응시한 학생에게는 수학 점수에 10%의 가산점이 적용됩니다.
+다른 학과에서는 일반적으로 수능 성적이 반영되지만, 추가적인 가산점은 주어지지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.2877822386108545</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적이 전반적으로 매우 중요한 역할을 합니다. 각 모집단위에 따라 다르지만, 대부분의 경우 수능 성적은 100%로 반영됩니다.
+가군 수능(일반학생전형)에서 수능성적 반영방법은 다음과 같습니다:
+- **전체 모집단위 (레저스포츠학과와 태권도학과를 제외한 모든 모집단위):**
+  - 국어, 수학, 영어 등급에 따른 점수
+  - 탐구 영역(사회탐구 또는 과학탐구 중 선택)의 표준점수
+- **레저스포츠학과와 태권도학과:**
+  - 실기 성적은 70%로 반영됩니다.
+  - 수능성적은 30%로 반영됩니다.
+상세한 내용은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시면 더 자세히 알 수 있습니다.
+이러한 방식으로 수능 성적이 학생들의 입학 경쟁력을 결정하는 중요한 요소가 됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.03874152360387521</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**입니다.
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 **2024. 01. 17.(수)**입니다.
+이 일정은 전형일정 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.02249127792863931</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 한의예과, 디자인조형학과, 체육학과, 경기지도학과는 실기/실적 위주 전형으로 분류되어 있습니다.
+따라서, 일반학생전형에서는 다음과 같은 모집단위가 제외됩니다:
+1. 한의예과 (수학(미적분/기하) 또는 수학(확률과통계) 응시자)
+2. 디자인조형학과
+3. 체육학과
+4. 경기지도학과
+이들 모집단위는 나군 실기/실적(일반학생전형)으로 분류되어 수능 위주 전형이 아닌 실기/실적 위주 전형으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.05604222211188067</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 수능(일반학생전형)에서는 수능 최저기준이 적용되지 않습니다.
+참조된 정보:
+- [표 제목 : 전형요소 반영비율]에서 다군 수능(일반학생전형)의 수능최저기준 항목은 "없음"으로 표시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.0920157605664491</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 학부 통합 또는 명칭 변경을 통해 변화하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.8784275070714848</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024년 1월 6일(토) 18시까지**입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.7539657396181549</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **정시모집군 변경**:
+   - 영어영문학과 (가) → 영어영문학과 (다)
+   - 호텔‧컨벤션경영학과 (나) → 호텔‧컨벤션경영학과 (가)
+   - 로봇자동화공학과 (나) → 로봇자동화공학과 (가)
+   - 토목공학과 (가) → 토목공학과 (나)
+   - 응용화학과 (가) → 응용화학과 (다)
+   - 바이오의약공학과 (다) → 바이오의약공학과 (나)
+   - 제품디자인공학과 (나) → 제품디자인공학과 (가)
+   - 전기공학과 (나) → 전기공학과 (가)
+   - 전자공학과 (나) → 전자공학과 (가)
+2. **전형 신설**:
+   - 학생부종합(평생학습자전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+3. **전형명 및 지원자격 변경**:
+   - 학생부종합(성인학습자(정원내)전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+이러한 변화는 전형의 구조와 지원자의 자격 요건을 포함하여 여러 면에서 영향을 미칠 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2515029480799655</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적(일반학생전형)에서는 실기가 차지하는 비중은 70%입니다.
+이는 다음과 같은 표에서 확인할 수 있습니다:
+[표 제목 : 가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율]
+[표 내용]
+```
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / } /
+```
+따라서 가군 실기/실적 전형에서는 수능이 30%, 실기가 70%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.004145236621155119</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+这三个专业分别关注创业投资、美容商业和生活文化等领域。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.5419221348095112</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과에서는 실기고사가 요구됩니다. 각 학과별로 실시되는 실기종목은 다음과 같습니다:
+- 레저스포츠학과: 제자리 멀리뛰기, Z-런
+- 태권도학과: 품새, 시범, 겨루기
+참고로, 각 실기 종목에서는 운동복 및 운동화를 착용해야 하며, 특정 규격의 메디신볼을 사용하는 경우가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.07104044879847889</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과 
+3. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+4. 체육학과
+이러한 학과들은 "실기/실적 위주" 전형으로 모집됩니다.
+추가로 주의할 점:
+- 각 학과별로 모집 인원이 다릅니다.
+- 실기고사는 일정일에 진행되며, 대기실 및 입실 시간 안내는 해당 일자 14:00 이후 홈페이지에서 확인 가능합니다.
+- 최종합격자는 지정 기한 내 등록금을 납부해야 합니다.
+따라서 지원하려는 학과를 정확히 선택하고 관련 일정을 체크하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.09004013831503559</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학 인문사회 학부에 신설된 라이프융합학부에서는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+这三个专业旨在融合生活、文化和商业，为学生提供跨领域的知识和技能。</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.4849695631886718</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 지원 가능 여부가 다릅니다.
+- **6년 과정**: 지원 불가능합니다.
+- **12년 과정**: 지원 가능합니다.
+특수목적고등학교 학생인 경우, 일반적으로 동의대학교는 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신자를 지원 자격에서 제외하고 있습니다. 따라서 6년 과정 특수목적고등학교 학생은 일반학생전형으로 지원할 수 없습니다.
+반면에 12년 과정의 경우, 지원이 가능합니다. 하지만 이 경우에는 해당 모집단위에서 요구하는 기타 자격 요건을 충족해야 합니다.
+따라서, 특수목적고등학교 학생인你是韩语母语者吗？根据提供的信息，特教高中学生不能申请一般学生成绩入学。但是，如果你是12年制的学生，则可以申请。不过，你还需要满足该招生单位的其他资格要求。
+如果你有更多具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.09860788274075366</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해서는 각 학과별로 정원 내 모집인원을 살펴봐야 합니다. 하지만 제공된 데이터 중에는 나군 전형의 모집단위와 정원 내 모집인원에 대한 정보가 포함되어 있지 않습니다.
+따라서, 현재 주어진 정보만으로는 정확한 답변을 드릴 수 없습니다. 추가적인 정보를 확인하시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 보시는 것이 좋습니다.
+만약 나군 전형에서 가장 많은 모집인원을 가진 학과가 특정한 정보로 확인되면, 그 결과를 바탕으로 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.04086725278276641</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你在申请时需要注意，根据表格中的信息，特殊教育高中（科学高中、国际高中、外语高中、体育高中、艺术高中）的学生是不能申请的。
+所以答案是否定的，你作为特殊目的高中的学生不符合东义大学农林地区学生学科综合型招生的资格要求。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>5.991241072703885e-232</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 합격자 평균 성적 정보가 제공된 표에서 확인할 수 없습니다. 현재 제공된 표는 다른 전형과 모집단위별 성적 정보만을 포함하고 있습니다.
+소프트웨어공학부에 대한 합격자 평균 성적을 알고 싶으시다면, 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 입학 홈페이지를 방문하여 2024학년도 소프트웨어공학부 관련 공고나 통계를 확인해보세요.
+2. 입학처에 직접 문의하시거나 전화로 연락주시면, 최신 정보와 정확한 데이터를 얻을 수 있습니다.
+현재 제공된 정보에서는 해당 학과의 평균 성적을 알 수 없습니다. 추가적인 자료 수집이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1009009855699708</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 최초합격자 평균 성적 정보가 제공된 표에서 확인할 수 없습니다. 주어진 표들은 다른 학과와 전형 유형에 대한 정보만을 포함하고 있습니다.
+소프트웨어공학부에 대한 최초합격자 평균 성적을 알고 싶으시다면, 동의대학교 입학처 웹사이트나 해당 학과의 공지사항을 확인해 보시는 것이 가장 정확한 방법입니다. 또한, 입학처로 직접 문의하시면 더 자세한 정보를 얻으실 수 있습니다.
+만약 표에서 확인할 수 없는 경우, 다음과 같은 절차를 따르세요:
+1. 동의대학교 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 방문합니다.
+2. 입학처나 관련 학과의 페이지로 이동하여 최신 정보를 확인합니다.
+3. 필요하다면, 입학처에 직접 문의하거나 전화로 연락합니다.
+이러한 방법을 통해 가장 정확하고 최신의 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.05387192200735403</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 합격자 발표 일정은 다음과 같습니다:
+- 최초합격자는 홈페이지를 통해 실시되며, 지원자는 반드시 합격 여부를 확인해야 합니다.
+- 1차 충원합격자는 2024년 1월 중에 발표될 예정입니다. 
+- 2차 충원합격자는 2024년 2월 중에 발표될 예정입니다.
+확정된 정확한 날짜는 동의대학교 공식 홈페이지를 통해 확인하시기 바랍니다. 지원자는 합격자 발표일에 반드시 홈페이지를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.408580303240353</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>면접은 개별적으로 진행되며, 각 지원자에게는 대략 10분간의 시간이 주어집니다. 면접 절차는 다음과 같습니다:
+1. 대기실에서 입실합니다.
+2. 신분 확인을 합니다.
+3. 고사장 앞으로 이동합니다.
+4. 고사장에 들어가면 지원 동기를 발표하게 됩니다.
+5. 학업역량과 전공적합성 관련 공통문항을 발표하고 질의응답이 이루어집니다.
+6. 기타사항 확인 단계에서 제출서류 진위 여부 등을 검증합니다.
+7. 마지막으로 퇴실합니다.
+면접은 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적으로 진행됩니다. 
+따라서 정확한 날짜와 시간은 지원자에게 개별로 통보되며, 홈페이지를 통해 확인할 수도 있습니다. 면접 당일에는 교복 착용이 금지되고, 개인 신상 정보(수험번호, 성명 등) 노출도 금지됩니다.
+면접을 보러 가기 전에 반드시 일정을 확인하고 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.007954726923768994</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다. 그러나 특정 과목에 대한 성적이나 점수 기준은 표시되어 있지 않습니다. 더 구체적인 최저학력기준을 확인하려면 해당 대학의 입학처 웹사이트를 방문하거나 직접 문의하는 것이 좋습니다.
+더 자세한 정보는 [입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 학교 입학관리팀에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>6.414077576446985e-05</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 정시모집에서는 명시적으로 수능 최저학력 기준을 제시하고 있지 않습니다. 지원자의 학력은 대체로 고등학교 졸업 또는 법령에 따른 동등 학력을 갖춘 자에게 한해 지원이 가능합니다.
+하지만, 일부 전형에서 수능 최저 점수를 요구하거나 수능 성적을 반영하는 경우가 있을 수 있으므로, 정확한 정보는 입학처 홈페이지나 공고문을 확인하시거나 직접 문의하시는 것이 좋습니다. 특히, 학생부종합전형 등에서는 수능 성적이 중요한 평가 요소로 작용하기 때문에, 수능 최저 점수를 충족하는 것이 유리할 수 있습니다.
+입학 전형에 대한 자세한 내용은 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>5.1504489888974e-07</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 이 기간 동안 합격 여부를 확인해야 합니다.
+특히 주의할 점은:
+- 최초합격자 및 1차, 2차 충원합격자에게는 별도 개별 연락을 하지 않으므로 홈페이지에서 반드시 확인해야 합니다.
+- 지정 기일 내에 등록금을 납부하지 않는 경우 등록(입학) 포기자로 간주됩니다.
+따라서 이 기간 동안 합격 여부를 꼭 확인하시고, 등록금 납부 시기를 염두에 두시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.2718486118483558</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>3차 이후의 추가합격자는 다음과 같은 일정에 따라 발표됩니다:
+- **2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지**: 개별 전화 통보를 통해 발표됩니다. 
+- 이때 합격자는 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+- 등록장소는 학교 지정은행으로, 등록금 고지서에 기재되어 있습니다.
+따라서 추가합격자 발표는 **2024년 2월 15일(목)부터 2024년 2월 20일(화)까지** 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.3353873980303247</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년 동일 모집군의 결원 발생 시 추가모집이 진행될 수 있습니다. 예를 들어, 정시 모집에서 일부 모집단위가 모집인원에 미달할 경우 그 인원은 정시&lt;나&gt;군으로 이월하여 추가로 합격자를 선발합니다.
+추가모집의 구체적인 내용과 일정은 동의대학교 입학관리 홈페이지를 통해 공고될 것입니다. 따라서 최신 정보를 확인하기 위해서는 동의대학교의 공식 웹사이트를 방문하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.3296609179639799</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입학전형의 하나로, 주요 특징과 지원자격 및 제출서류 등을 다음과 같이 설명할 수 있습니다:
+### 주요 특징:
+1. **지원 자격**: 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자입니다.
+2. **재직기간**: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상이어야 합니다.
+3. **산업체 적용 범위**:
+   - 국가·지방자치단체 및 공공단체 소속 직원
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 4대 보험 가입 대상이 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있습니다.
+### 제출 서류:
+- **고교 졸업(예정)자**: 고교 학교생활기록부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- **검정고시 출신자**: 검정고시 합격증서 사본 또는 합격증명서, 검정고시 성적증명서
+- **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서 (만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부)
+### 서류평가 영역:
+- **공동체역량**: 협업능력, 학교폭력 여부, 행동특성 및 종합의견 등
+- **학업역량**: 학업태도, 학업성취, 열정, 교과학습발달상황 등
+- **전공적합성**: 지원 전공(계열) 관련 활동과 경험, 학업의지, 창의적체험활동 상황 등
+### 서류평가 기준:
+1. **공동체역량** 영역에서 공동체 목표를 위한 협력적 태도와 나눔, 배려가 필요하며, 학교폭력 여부에 따라 감점 또는 불합격 처리될 수 있습니다.
+2. **학업역량** 영역에서는 학업에 대한 흥미 및 주도적 노력, 수업시간의 적극적인 참여, 학업 성취정도 등이 평가됩니다.
+3. **전공적합성** 영역에서는 지원 전공(계열) 관련 활동과 경험, 학업의지 등을 평가합니다.
+### 면접평가:
+- **면접시간**: 1인당 10분 이내
+- **면접방법**: 입학사정관 2인이 평가위원이 되어 개별적 평가를 진행하며, 정성·종합적으로 평가됩니다.
+- **면접 내용**: 지원동기 및 학업계획 발표, 학업역량과 전공적합성 관련 공통문항 발표 및 질의응답 등
+### 동점자 처리 기준:
+1. **1등급**: 면접고사 성적 상위자
+2. **2등급**: 서류평가 공동체역량 영역 성적 상위자
+3. **3등급**: 서류평가 전공적합성 영역 성적 상위자
+이러한 절차와 기준을 준수하여 평생학습자전형에 지원할 수 있습니다. 자세한 내용은 대학 입학 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.3588308699172503</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자여야 합니다.
+이러한 자격 요건을 충족하는 지원자가 해당 전형을 신청할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.4043772737742998</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각각의 모집단위에 따라不同的的的回答，请参考以下信息：
+實驗技能考試通常需要在指定的考場進行。具體的地點可能會在官方網站或招生簡章中提供詳細信息。一般來說，考生應該注意以下幾點：
+1. 考試地點：請留意官方公告中的具體地址。
+2. 报到時間：提前了解報到時間，確保準時參加考試。
+3. 必備物品：檢查是否需要攜帶特定的工具或材料（如筆、尺子等）。
+如果您能提供更具体的學科或專業信息，我可以幫助您找到更詳細的地點和相關要求。目前的信息顯示實驗技能考試地點通常會在官方網站上公布，請定期查看相關公告以獲取最新資訊。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.009282760809693527</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+- **제자리 멀리뛰기**: 240점 (24%)
+- **메디신볼 던지기**: 243점 (23%) 
+- **Z-런**: 230점 (23%)
+각 실기종목은 운동복 및 운동화를 착용해야 하며, 특수화는 불가합니다. 신발바닥에 이물질 가칠 금지도 있습니다.
+추가로, 각 실기종목에서 2회 반칙당하면 최저점수를 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.02266637929758685</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지원자님께서 말씀하신 대로, 최초합격자 및 1차, 2차 충원합격자는 별도 개별 연락을 하지 않습니다. 하지만 3차 이후 충원합격자 발표 과정에서 전화연락 두절(3회 통화)으로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주될 수 있습니다.
+따라서 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 이 기간 동안 전화를 받지 못하는 일이 없도록 유의해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.355160462149379</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到2023年警察行政学专业的具体情况。根据给出的信息，没有关于2023年该专业招生结果的具体数据或说明。
+如果您需要了解2023年警察行政学专业的具体录取情况，建议访问东国大学的官方网站（https://ipsi.deu.ac.kr/main.do）查询最新的招生信息和公告，或者直接联系学校的招生办公室获取详细资料。</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1898911037429767</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024년의 경우, 정시모집에서 일부 전형은 수능을 응시하지 않은 학생도 지원이 가능합니다. 특히, `학생부종합(평생학습자전형)`, `학생부종합(성인학습자(정원내)전형)`, `학생부종합(성인학습자(정원외)전형)` 등은 수능을 응시하지 않은 학생도 지원이 가능합니다. 그러나 이러한 전형들은 일반고, 자율고 등의 고교 유형에서 졸업한 자 또는 법령에 의한 동등 학력 소지자로 제한됩니다.
+또한, `학생부종합(성인학습자(정원내)전형)`은 만 30세 이상의 재직자를 대상으로 합니다. 따라서 수능을 응시하지 않은 성인 학습자도 해당 전형에 지원이 가능합니다.
+따라서 정시모집에서 수능을 응시하지 않아도 일부 전형에서는 지원이 가능한데, 자격 요건과 모집 단위를 잘 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>5.865696685034298e-05</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 일반적으로 고등학교 졸업 후 10년이 경과하면 정시모집에 지원할 수 있는 자격이 없습니다. 대다수의 대학은 최소한 최근 3-5년 이내의 고교 졸업자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+하지만, 특정 전형에서 예외적으로 지원이 가능할 수 있으므로 다음과 같은 정보를 확인해 보시기 바랍니다:
+1. **학생부종합(평생학습자전형)**: 이 전형은 고등학교 졸업 후 10년 이상 경과한 성인 학습자를 대상으로 합니다.
+2. **성인학습자전형**: 일부 모집단위에서는 만 30세 이상의 성인 학습자를 대상으로 하는 전형이 있습니다.
+따라서, 정확한 지원 가능 여부를 확인하려면 동의대학교 입학 홈페이지나 전화로 문의하시는 것이 좋습니다. 해당 페이지에서 최신 모집요강을 확인하시거나, 입학처에 직접 문의해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.07561101058698277</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토) 마감일 18시까지
+   - 접수 사이트는 http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com 입니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금) 마감일 17시까지 도착
+4. **&lt;가&gt;군 실기고사**: 레저스포츠학과, 태권도학과 / 2024년 1월 16일 (화)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+5. **&lt;나&gt;군 실기고사**: 디자인조형학과, 체육학과 / 2024년 1월 17일 (수)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 2024년 2월 2일 (금) 14:00
+     - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다.
+   - **최초 합격자 등록**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화) (은행마감시간 내)
+     - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다.
+   - **충원 합격자 발표 및 등록**:
+     - **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다.
+     - **1차 충원 합격자 등록**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다.
+     - **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다.
+     - **2차 충원 합격자 등록**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다.
+     - **3차 이후 충원 합격자 발표**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다.
+     - **3차 이후 충원 합격자 등록**: 개별 전화 통보 시 안내
+7. **등록금 납부**:
+   - 지정은행에 직접 방문하여 납부하거나, 온라인으로 납부할 수 있습니다.
+이 일정을 준수하여 지원자의 입학 절차를 원활하게 진행할 수 있도록 주의 깊게 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.5885163087297087</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학 안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토) 마감일 18시까지
+   - 접수 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금) 마감일 17시까지 도착
+   - 서류 제출 대상: 특정 모집단위에 따라 다릅니다.
+   - 제출 방법: 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편 발송
+4. **&lt;가&gt;군 실기고사**: 2024년 1월 16일 (화)
+   - 태권도학과, 레저스포츠학과 등에서 실시
+   - 대기실 및 입실 시간 안내: 2024년 1월 12일 (금) 14:00 이후 입학 안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**: 2024년 1월 17일 (수)
+   - 디자인조형학과, 체육학과 등에서 실시
+   - 대기실 및 입실 시간 안내: 2024년 1월 12일 (금) 14:00 이후 입학 안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화) (은행 마감 시간 내)
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 2024년 2월 14일 (수) 09:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표 및 등록: 2024년 2월 15일 (목) 09:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+7. **환불 신청**: 2024년 2월 14일 (수) ~ 2024년 2월 20일 (화) 12:00
+8. **기타 유의사항**:
+   - 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 확인해야 합니다.
+   - 최초 및 충원합격자는 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학 포기로 간주됩니다.
+이 일정은 일반적인 정시 모집 일정이며, 특정 모집단위나 전형별로 약간의 차이가 있을 수 있으므로 공식 홈페이지를 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.536203952177292</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능을 미응시한 지원자가 지원할 수 있는 전형으로는 "한의예과 수학(미적분/기하) 응시자"와 "한의예과 수학(확률과통계) 응시자"가 있습니다. 이들 전형에서는 수능 수학 영역에 대한 응시를 요구하지만, 다른 수능 영역은 선택적으로 응시할 수 있으며, 미응시 시 0점으로 처리됩니다.
+또한, "학생부종합(성인학습자(정원내)전형)"과 "학생부종합(성인학습자(정원외)전형)"도 수능 미응시자를 대상으로 합니다. 이 전형에서는 수능 성적을 반영하지 않으며, 주로 학생부와 면접 등을 통해 평가됩니다.
+따라서, 수능을 일부 또는 전부 응시하지 않은 지원자도 특정 조건 하에 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.08669761204689216</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년도 수시 모집 일정을 기반으로, 전년도 전자공학과의 충원 합격 정보는 제공된 데이터에서 직접 확인할 수 없습니다. 하지만 일반적으로 대학의 충원 절차는 다음과 같습니다:
+1. 최초합격자 발표 및 등록
+2. 1차 충원 합격자 발표 및 등록
+3. 2차 충원 합격자 발표 및 등록
+따라서 전년도에 전자공학과의 충원 합격은 최소한 1차까지 이루어졌을 가능성이 높습니다. 하지만 정확한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 공지사항을 확인하거나, 직접 연락하여 문의하는 것이 가장 확실합니다.
+만약 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.135007582483524</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 직접적인 전화번호는 확인할 수 없습니다. 지원자 유의사항이나 기타 내용에서도 관련 전화번호가 언급되지 않았습니다.
+인터넷 원서접수 유의사항에 따르면, 문의사항은 다음과 같이 연락이 가능합니다:
+- (주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+그러나 이는 입학처와 직접 관련된 전화번호가 아닌 원서접수 대행업체의 번호입니다. 동의대학교 입학처의 공식 연락처를 찾으시려면,官方网站回答：
+对不起，根据您提供的信息中，并没有直接提到东义大学入学处的电话号码。在申请注意事项中的互联网报名注意事项部分，有提供一个咨询电话：
+- (株)优威应用：1588-8988（http://www.uwayapply.com）
+这并不是入学处的官方联系电话，而是负责处理网上申请的服务商的电话。如果您需要联系东义大学入学处，请访问其官方网站或直接查询学校的联系方式以获取准确信息。您可以尝试通过学校官网上的“联系我们”页面或其他相关链接来找到正确的联系电话。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.005273697317378625</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.7671403641783313</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형 지원 시 각각 다음과 같은 서류를 제출해야 합니다:
+### 6년 과정
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모 모두의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 12년 과정
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 추가사항
+- 제출기간: 2024년 1월 3일(수) ~ 1월 12일(금) 17:00까지 도착분에 한함
+- 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본은 고교졸업 이후 발급되어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 합니다. 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+위와 같이 농어촌학생전형을 지원하려면 해당 기간 내에 정확하게 제시된 서류들을 준비하고 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.5136143941147636</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+주요 내용은 다음과 같습니다:
+1. 지원자의 주민등록초본을 제출해야 합니다.
+2. 초중고등학교에서의 학교생활기록부를 각각 제출해야 합니다.
+3. 고등학교 학교생활기록부는 온라인 제공이 가능한 경우 제외하고는 반드시 서류 형태로 제출해야 합니다.
+또한, 주민등록초본은 최신 버전을 발급 받아야 하며, 주소변동사항이 포함된 초본을 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.5978605869587768</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于低收入机会均等类型的单独招生计划。根据现有内容，没有直接证据表明东义大学在2024年定期招生（정시모집）中设有针对低收入家庭学生的特殊招生计划。
+如果您想了解有关低收入学生的机会均等计划的信息，建议访问东义大学的官方网站或联系学校的招生办公室以获取最准确和最新的信息。有时学校会为特定群体提供特殊的奖学金、助学金或其他形式的支持，但这些通常不会体现在常规的招生计划中。
+您可以参考以下链接以获得更多信息：
+https://ipsi.deu.ac.kr/main.do
+或者直接咨询东义大学的招生部门确认是否有相关的低收入机会均等计划。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.05969128836536858</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능의 탐구 영역에서 두 과목의 등급을 평균산출할 때, 소수점 셋째자리까지 반영하여 계산한 후 절사한다는 내용이 포함되어 있습니다. 
+따라서 사탐(사회탐구) 2과목의 평균등급이 2.5가 나온다면, 이는 소수점 셋째자리까지 반영된 값이며, 최종적으로는 3등급으로 절사됩니다.
+예를 들어:
+- 한 과목이 2등급이고
+- 다른 한 과목이 3등급인 경우 평균은 (2 + 3) / 2 = 2.5가 됩니다.
+- 이 값은 소수점 셋째자리까지 반영되므로 최종적으로는 3등급으로 절사됩니다.
+따라서, 2.5등급이 나온다면 실제로는 3등급으로 처리될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1447749048604466</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 충원 합격자는 다음과 같이 발표됩니다:
+1. 1차 충원 합격자 발표: 2024년 2월 14일(수) 09:00
+2. 2차 충원 합격자 발표: 2024년 2월 15일(목) 09:00
+또한, 최초합격자와 함께 3차 이후 충원 합격자는 개별 전화 통보를 통해 발표됩니다:
+3. 3차 이후 충원 합격자 발표: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+따라서, 총 3차로 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.451474969673936</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교의 정시 모집에서 e비즈니스학과는 상경대학 인문사회 계열에 속해 있습니다. 수능 성적 반영 비율은 100%이며, 최저 합격 기준을 충족해야 합니다.
+현재 주어진 정보로는 e비즈니스학과의 정확한 최저합격선을 알 수 없습니다. 하지만 일반적으로 상경대학 인문사회 계열의 최저합격선은 4.0 이상이어야 하는 경우가 많습니다. 따라서 4.6이라는 성적은 대체로 충분할 것으로 보입니다.
+하지만 정확한 정보를 얻기 위해서는 동국대학교 입학처 웹사이트나 전형요강을 확인하는 것이 좋습니다. 특히, 최신의 모집요강과 최저합격선 등에 대한 공고를 확인하시면 더 정확한 판단이 가능합니다.
+추가로, 동국대학교의 수능 성적 반영 방법은 다음과 같습니다:
+- 국어(표준점수)
+- 수학(표준점수)
+- 영어(등급에 따른 점수)
+따라서 4.6이라는 수능 점수는 이 세 영역에서 어느 정도 좋은 성적이어야 하는지 확인하시고, 해당 학과의 최저합격선을 충족하는지 판단해보시면 됩니다.
+만약 최저합격선이 4.0 이상이라면, 4.6이라는 점수는 충분히 추가 합격 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.291323935641153</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 모집요강을 고려해보겠습니다.
+1. **모집인원 및 지원자 수**:
+   - e비즈니스학과는 30명을 모집합니다.
+   - 지원자는 105명이었습니다 (경쟁률 3.52).
+2. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 평균: 397.20
+   - 영어 등급 평균: 4.55
+   - 수능 4개 영역 등급 평균: 5.37
+3. **최고점과 최저점**:
+   - 표준 변환 점수 최고점: 424.05 (게임공학과)
+   - 표준 변환 점수 최저점: 317.87 (소프트웨어공학부)
+4. **등급 평균**:
+   - e비즈니스학과의 등급 평균은 5.37입니다.
+이러한 정보를 바탕으로, 정시 등급 5.3은 e비즈니스학과의 평균 점수와 비슷하거나 약간 낮습니다. 그러나 경쟁률이 높아 최고점까지는 도달하기 어려울 수 있습니다.
+**합격 가능성 분석**:
+- **최상위권 합격 가능성**: 5.3 등급은 최상위권 학생들보다 약간 낮으므로, 최상위권 합격 가능성은 낮습니다.
+- **중위권 합격 가능성**: e비즈니스학과의 경쟁률이 3.52로 상대적으로 높지 않기 때문에, 중위권 학생들 사이에서는 충분히 최초합격 가능성이 있습니다.
+따라서, 정시 등급 5.3으로는 **중위권 합격 가능성**은 있을 것으로 예상됩니다. 그러나 최고점까지 도달하기 위해서는 추가적인 경쟁력 있는 요소가 필요할 수 있습니다 (예: 면접 성적, 서류 평가 등).
+결론적으로, 정시 등급 5.3으로 e비즈니스학과에 최초 합격 가능성은 **있지만 낮습니다**. 추가적인 지원자들의 성적 분포와 경쟁률을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.04012845155930679</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要更多的信息。特别是关于您在申请过程中提交的材料和成绩情况。不过，我可以提供一些一般性的建议：
+1. 您需要查看您的成绩单是否符合学校的要求。通常，e-Business学士学位课程会要求一定的科目成绩。
+2. 如果您已经参加了入学考试或面试，请确保您的表现良好。
+3. 请检查您提交的所有文件和材料是否齐全且准确无误。
+4. 确保您满足所有申请截止日期和其他程序性要求。
+5. 您可以参考学校提供的录取标准，了解哪些科目或成绩是关键因素。
+如果您能提供更多具体信息（如您的成绩单、考试分数等），我可以尝试给出更具体的建议。或者您可以直接访问 https://ipsi.deu.ac.kr/main.do 网站获取最新和最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.08868470861155336</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 수능 영어 등급은 동의대학교 간호학과의 모집요강을 고려할 때 상당히 낮은 점수입니다.
+동의대학교 간호학과의 모집요건을 보면:
+- 2024년도 최저등급은 B+ (3.5) 이상이 요구됩니다.
+- 일부 과목에 대한 추가 가산점이 있을 수 있습니다.
+따라서, 3.44이라는 등급으로는 간호학과의 최소 기준을 충족하지 못합니다. 이 경우 합격 가능성은 매우 낮습니다.
+그러나 정시 모집에서 합격 여부는 수능 성적 외에도 실기고사, 면접 등의 결과가 포함되므로, 모든 요인을 종합적으로 고려해야 합니다. 만약 다른 평가 항목들이 높다면 합격 가능성은 약간 향상될 수 있지만, 기본적인 수능 등급 기준만으로는 낮습니다.
+추천되는 조치:
+1. 동의대학교 간호학과에 지원하지 않는 것이 좋습니다.
+2. 다른 대학이나 전공을 고려해 보세요.
+3. 추가 학습을 통해 수능 영어 점수를 향상시키는 것을 고려해 보세요.
+결론적으로, 현재의 수능 영어 등급으로는 동의대학교 간호학과에 합격하기 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1208938696972661</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 수능(일반학생전형) 최종 등록자 정보를 보면, 간호학과는 다음과 같은 특징을 가지고 있습니다:
+- 모집 인원: 110명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 충원 합격 (후보순위): 37명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 평균은 357.63이고, 이는 2.52보다 훨씬 높습니다.
+간호학과의 최종 등록자들의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균은 489.72입니다. 이 값이 매우 높기 때문에, 성적이 2.52인 경우 최종 합격 가능성은 매우 낮습니다.
+간호학과는 매우 경쟁률이 높고 고득점자를 선발하는 전형으로 알려져 있습니다. 따라서, 현재의 성적로는 간호학과에 최종 합격하기가 어려울 것으로 보입니다.
+그럼에도 불구하고, 정시 모집에서 성적이 낮은 경우에도 일부 학생들이 합격한 사례가 있기 때문에, 모든 가능성은 열어두어야 합니다. 하지만 현실적으로는 다른 전형이나 대학을 고려해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.08747101549571962</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경우, 정시 모집에서는 수능 점수를 주요 평가 기준으로 합니다. 간호학과는 일반적으로 높은 수능 점수가 요구되므로, 정시 성적이 3.7인 경우 합격 가능성은 낮을 것으로 예상됩니다.
+간호학과의 모집요강에 따르면:
+1. **수능 점수**: 간호학과는 수능 점수가 매우 중요합니다. 특히 국어, 수학, 영어 등 주요 과목의 성적이 높아야 합니다.
+2. **등급 평균**: 2024년도에 간호학과의 수능 등급 평균은 상당히 높았습니다. 예를 들어, 국어는 A+ 등급 이상이 많았고, 수학도 B+ 등급 이상이 요구되었습니다.
+3. **경쟁률**: 간호학과는 매우 경쟁률이 높은 학과로 알려져 있습니다.
+따라서 정시 성적이 3.7인 경우, 간호학과에 합격하기 위해서는 다음과 같은 조건을 충족해야 합니다:
+- **수능 점수**: 국어, 수학, 영어 등 주요 과목의 표준 변환 점수가 높아야 합니다.
+- **등급**: 국어와 수학은 A+ 이상, 영어는 B+ 이상이어야 합니다.
+정시 성적이 3.7인 경우, 간호학과에 합격하기 위해서는 매우 높은 수능 점수를 얻어야 하므로, 합격 가능성은 낮다고 볼 수 있습니다. 그러나 최선을 다해 준비하고, 가능하다면 다른 전형(예: 학생부종합전형 등)을 통해 지원하는 것이 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지나 모집요강에서 가장 최신 정보를 확인하시고, 필요하다면 입학처에 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.0289884763131524</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집인원과 지원자들의 경쟁률 등을 고려해보겠습니다.
+간호학과는 110명을 모집하며, 최종등록자의 경우 다음과 같은 점수를 보였습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 93.5 / 표준 편차 10.7
+- 영어 등급: 평균 B+ / 표준 편차 0.4
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 93.5 / 표준 편차 10.7
+이러한 데이터를 바탕으로, 정시 성적이 2.58인 경우는 매우 낮은 수치로 보입니다. 대부분의 최종등록자들의 점수가 90점대 중반에서 높은 점수를 받았습니다.
+따라서, 정시 성적이 2.58인 경우 간호학과에 합격하기는 매우 어려울 것으로 예상됩니다. 하지만 최종 등록자들의 성적 분포와 경쟁률이 변동될 수 있으므로, 정확한 확신을 가질 수는 없습니다.
+추가적으로, 동의대학교의 입학전형은 다양한 요소를 고려하기 때문에, 면접이나 서류평가에서 우수한 점수를 받거나 특별한 경험이 있다면 합격 가능성은 조금 더 높아질 수 있습니다. 하지만 일반적인 경우로는 낮은 성적을 가진 지원자는 매우 어려울 것으로 예상됩니다.
+추가 정보나 개인의 특별한 경험 등이 있으시다면, 해당 내용도 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.05146330624354162</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변이 어렵습니다. 게임공학과의 모집인원은 3명이며, 현재 지원 인원이 16명입니다(경쟁률은 5.33입니다). 따라서 경쟁률이 매우 높습니다.
+게임공학과의 동점자 처리기준을 확인해보면:
+1. 서류 성적 상위자
+2. 국어, 수학, 영어, 한국사, 사회(역시/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+3. 영어교과 전 과목 등급 평균 상위자
+4. 국어교과 전 과목 등급 평균 상위자
+이 기준에 따라 최종 합격자가 결정됩니다.
+예비번호 7번으로 지원하셨다면, 경쟁률이 매우 높은 만큼 충원될 가능성은 낮습니다. 하지만 최종합격 여부는 동점자 처리기준과 지원자의 성적 등 여러 요인에 따라 결정되므로 확실한 답변을 드리기는 어렵습니다.
+추가적으로, 학교 입학관리팀에 직접 문의하거나, 지원하신 과의 교수님에게 상세히 설명을 들어보시는 것이 좋겠습니다. 또한, 최종합격 여부를 확인하기 위해 합격자 발표일에 반드시 홈페이지를 통해 결과를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.04578918939321092</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 한국어와 수학, 영어 등급을 포함한 표준점수로 보이는데, 이 점수만으로 정확히 어떤 전형에서 추가 합격 가능 여부를 예측하기는 어렵습니다. 동의대학교 게임공학과의 경우 여러 전형이 있을 수 있으며, 각 전형별로 수능 성적 반영 비율과 기준이 다릅니다.
+다음은 일반적인 절차와 고려해야 할 요소들입니다:
+1. **전형별 수능 반영 비율 확인**: 동의대학교 게임공학과는 여러 정시 전형을 통해 모집하므로, 각 전형별로 수능 성적의 반영 비율을 확인해야 합니다.
+2. **최저합격선 확인**: 해당 학과의 최저합격선을 알아보세요. 이는 일반적으로 수능 성적과 서류 평가 등을 종합적으로 고려하여 결정됩니다.
+3. **경쟁률 및 지원자 분포**: 동일한 전형에서 다른 지원자의 수능 성적이 어떻게 분포되어 있는지 확인해야 합니다. 경쟁률이 높다면, 4.16이라는 점수로 추가 합격 가능성은 낮을 수 있습니다.
+4. **서류 평가 및 면접**: 게임공학과는 종종 서류 평가와 면접을 통해 지원자를 선발하기 때문에, 이 부분에서 좋은 성적을 거두면 추가 합격 가능성이 높아질 수 있습니다.
+5. **전형별 특성**: 일부 전형은 특정 과목의 성적이 더 중요할 수 있으므로, 게임공학과와 관련된 교내 활동이나 프로젝트 경험 등을 잘 준비해야 합니다.
+이러한 요소들을 종합적으로 고려하여 지원 전략을 세우는 것이 좋습니다. 하지만 정확한 추가 합격 가능 횟수를 예측하기 위해서는 동의대학교 게임공학과의 공식 모집요강이나 입학처 웹사이트를 참조하는 것이 가장 정확할 것입니다.
+추가로, 동의대학교 입학 홈페이지 (http://ipsi.deu.ac.kr)를 방문하여 최신 정보와 자세한 전형별 기준을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.03314398916805954</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 질문에 대해 답변 드리겠습니다.
+수능(일반학생전형)의 경우, 경영정보학과와 같은 모집단위에서 정시 성적 3.75는 충분히 최초등록자로 선발될 수 있는 점수가 아닙니다. 일반적으로 경영정보학과와 같은 인기 학과에서는 더 높은 수능 점수를 요구합니다.
+특정 모집단위의 최소 성적 기준을 확인하려면, 해당 모집단위의 전형요강이나 입학사정관제를 참조해야 합니다. 또한, 경쟁률이 매우 높다면 더 높은 점수가 필요할 수 있습니다.
+따라서, 정시 성적 3.75로 경영정보학과 최초등록자로 선발될 가능성은 낮습니다. 더 높은 점수를 얻거나 다른 전형(예: 학생부종합전형 등)을 통해 지원하는 것이 좋을 수 있습니다.
+만약 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.1559809507866907</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>4.2라는 점수만으로는 경영정보학과의 최초합격 여부를 단정 짓기는 어렵습니다. 하지만 일반적으로 대입 성적을 평가하는 경우, 경영정보학과와 같은 학과는 국어, 수학, 영어 등 주요 과목의 성적이 필요합니다.
+주요 점수를 확인해보겠습니다:
+1. **국어**: 4.2
+2. **수학**: 이 점수가 포함되어야 합니다.
+3. **영어**: 이 점수가 포함되어야 합니다.
+일반적으로 경영정보학과의 모집인원과 지원 인원, 그리고 경쟁률을 고려해야 합니다. 하지만 4.2라는 국어 점수만으로는 충분한 성적이 아닐 가능성이 높습니다. 특히 수학과 영어 등 다른 주요 과목의 성적도 중요합니다.
+**추가 정보 필요사항:**
+- **수학**: 최소 3.5 이상이 일반적으로 요구됩니다.
+- **영어**: 최소 4.0 이상이 일반적으로 요구됩니다.
+따라서, 국어 점수가 4.2라면, 수학과 영어의 성적을 확인해야 합니다. 만약 수학과 영어도 좋은 성적이 있다면, 최초합격 가능성은 있습니다. 하지만 경쟁률이나 모집인원에 따라 결정될 수 있으므로, 정확한 정보를 얻기 위해서는 입학처 웹사이트나 전형요강을 참조하시거나 직접 문의하시는 것이 좋습니다.
+**추천 조치:**
+1. **수학과 영어 성적 확인**: 해당 과목의 성적을 확인하세요.
+2. **입학처 문의**: 입학처에 직접 문의하여 최초합격 가능성 여부를 확인하세요.
+3. **모집인원 및 경쟁률 확인**: 해당 학과의 모집인원과 지원 인원, 그리고 경쟁률을 확인하세요.
+이런 정보들을 종합적으로 고려하면 더 정확한 판단을 내릴 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.02849099151582827</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部（经管类专业）在2024年招生的具体情况。
+2. 您提供的5.33分的成绩是否符合该专业的录取标准。
+根据您提供的数据表中的内容，我们可以看到经营信息学和e商务学两个专业合并为一个招生单位：经营信息学部。但是具体到每个专业的详细录取分数线等信息没有直接给出。
+通常情况下，如果您的成绩是5.33（假设这是指的等级），这在韩国大学入学考试中属于较好的成绩范围。但是否能够被东国大学经营信息学部录取还需要参考该专业2024年的实际录取分数线和竞争情况。
+建议您查看以下内容来做出更准确的判断：
+1. 访问东国大学官方网站，查找2024年经营信息学部的具体招生简章。
+2. 查找该专业的具体录取分数线（如果有的话）。
+3. 了解该专业在2024年的实际竞争情况。
+如果您无法找到这些详细信息，建议直接联系东国大学的招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.01889622706268816</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대해 성적 3.33 정도로 최초등록자로 합격할 가능성은 낮습니다.
+다음은 이유와 참고사항입니다:
+1. **전형 요소**: 바이오응용공학부는 주로 수능 성적이 중요합니다. 일반학생전형에서는 수능 점수가 큰 비중을 차지합니다.
+2. **성적 평균**: 표에서 보시듯, 바이오응용공학부의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 상당히 높습니다. 예를 들어, 4.53 ~ 5.71 사이입니다.
+3. **경쟁률**: 바이오응용공학부는 매우 경쟁률이 높은 학과로 알려져 있습니다. 이에 따라 낮은 성적만으로 최초등록자로 합격하기는 어렵습니다.
+4. **전형 요소 반영 비율**: 수능성적이 주요한 역할을 합니다. 일반학생전형에서는 수능 점수가 80% 이상의 비중을 차지합니다.
+5. **추천사항**:
+   - **수능 준비**: 성적을 높이는 것이 가장 중요합니다.
+   - **추가 지원**: 다른 전형(예: 학생부교과, 실기/실적 등)으로 지원해 볼 수 있습니다.
+   - **면접 준비**: 일부 전형에서는 면접이 포함될 수 있으므로 준비를 해두세요.
+결론적으로 성적이 3.33이라면 바이오응용공학부의 최초등록자로 합격하기는 어렵습니다. 성적을 높이는 것이 가장 효과적인 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.06113726723124053</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과에 지원하시려면, 몇 가지 요소를 고려해야 합니다:
+1. **성적**: 방사선학과는 일반학생전형으로 모집되며, 성적이 중요한 요인입니다. 현재 제시된 성적 4.4 등급은 좋은 기초가 되지만, 정확한 합격 가능성을 판단하기 위해서는 해당 학과의 전년도 입학성적을 확인해야 합니다.
+2. **전형요소**: 방사선학과는 주로 수능 성적이 반영되는 일반학생전형으로 모집됩니다. 따라서 수능 점수와 등급이 중요합니다. 방사선학과의 경우, 수능 과목별로 특정 점수가 요구되므로, 해당 과목(특히 국어, 수학, 영어)의 성적을 확인해야 합니다.
+3. **모집인원 및 경쟁률**: 각 모집단위별로 모집인원이 다르고, 경쟁률도 매우 높을 수 있으므로, 정확한 정보를 얻기 위해 동의대학교 입학 홈페이지나 전형요강을 확인해야 합니다.
+4. **추천서 등 추가 서류**: 일부 학과에서는 추천서나 면접 등의 추가 평가 요소도 고려할 수 있으므로, 해당 학과의 세부 전형요건을 꼭 확인하세요.
+5. **면접 준비**: 방사선학과는 종종 면접이 포함될 수 있으므로, 관련 질문들을 미리 준비하고, 자신의 진로 계획 등을 잘 설명할 수 있도록 해야 합니다.
+**추천 사항:**
+- 동의대학교 입학 홈페이지를 방문하여 2024년도 방사선학과의 모집요강을 확인하세요.
+- 전년도 합격자 성적을 참조하여 자신의 경쟁력을 평가해보세요.
+- 수능 과목별로 필요한 점수를 충족할 수 있는지 확인하세요.
+이러한 정보들을 종합적으로 고려하면, 방사선학과에 지원하는 것이 가능할 것 같습니다. 그러나 최종 결정은 동의대학교에서 발표하는 합격기준을 따르는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.01645404283965575</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 정시 모집에서 2.66이라는 평균 등급을 기록한 것을 보면, 이는 상대적으로 낮은 수준입니다.
+방사선학과는 보통 과학적 지식과 실무 능력이 요구되는 전공으로, 고등학교 교육과정 중 과학 관련 과목의 성적이 중요하게 평가됩니다. 2.66 등급은 다음과 같은 점들을 고려할 때 주의해야 할 수준입니다:
+1. **과목별 성적**: 방사선학과에서는 생물, 물리, 화학 등의 과목이 필수적으로 요구되므로, 이들 과목에서 높은 등급을 받는 것이 중요합니다.
+2. **등급 변동성**: 2024년의 평균 등급이 2.66이라면, 이전 연도와 비교해보아야 합니다. 만약 최근 몇 년간의 평균 등급이 상승 추세라면, 현재 수준은 더 위험할 수 있습니다.
+3. **경쟁률**: 방사선학과는 인기가 있는 전공 중 하나로, 경쟁률이 높을 가능성이 큽니다. 따라서 낮은 등급으로 지원하는 것은 어렵게 될 수 있습니다.
+4. **가산점**: 일부 학교에서는 특별한 가산점을 부여하기도 합니다. 이 점을 고려하면, 2.66 등급이지만 다른 요인들(예: 특기사항, 면접 성적 등)으로 인해 합격 가능성은 열려 있을 수 있습니다.
+5. **개인별 상황**: 지원자의 개인적인 강점과 약점을 고려해야 합니다. 예를 들어, 과학 관련 프로젝트나 경험이 있다면 이는 긍정적으로 작용할 수 있습니다.
+결론적으로 2.66 등급은 방사선학과에서 낮은 편으로, 추가적인 준비와 노력이 필요할 것입니다. 학교의 입학 기준을 다시 확인하고, 다른 지원 전략(예: 면접 준비, 특기사항 강화 등)도 고려해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.03423259415129885</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 경쟁률과 특정 학교의 기준에 따라 다르게 평가될 수 있습니다. 그러나 일반적으로 경찰행정학과나 농어촌 전형에서는 GPA 외에도 다양한 요소들이 고려됩니다.
+1. **농어촌 거주 자격**: 지원자가 농어촌 지역에서 6년 과정이나 12년 과정을 이수하고 거주한 자여야 합니다. 이 부분이 충족된다면 합격 가능성은 높아집니다.
+2. **학생부 평가**: 학생부의 활동과 성적, 그리고 봉사활동 등도 중요한 요소입니다. 3.66이라는 GPA는 꽤 좋은 점수이므로 이 부분에서 좋은 평가를 받을 수 있습니다.
+3. **면접 결과**: 면접에서도 학생부와 활동 경력 등을 바탕으로 평가됩니다. 준비한 내용이 잘 전달되고, 적극적인 태도를 보여주면 긍정적으로 평가받을 수 있습니다.
+4. **추천서 및 기타 서류**: 추천서나 자기소개서 등 다른 서류들도 중요한 역할을 합니다.
+따라서 GPA 3.66만으로는 확실한 합격을 보장하기 어렵지만, 농어촌 거주 자격과 활동 경력 등을 잘 준비한다면 합격 가능성은 있습니다. 
+**추천 사항:**
+- 농어촌 거주 자격 확인
+- 면접 준비 (면접 질문 공통문항 등 참고)
+- 추천서 및 자기소개서 작성
+이러한 요소들을 종합적으로 고려하여 지원하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.1420035670712419</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 위치에서 합격할 확률은 상당히 낮습니다. 하지만 모든 것이 불확실하기 때문에, 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. **경쟁자들의 성적**: 현재까지의 최고 점수와 평균 점수가 알려져 있지 않으므로, 예비 25위가 합격선에 가까운 위치인지 확인해야 합니다.
+2. **모집인원과 지원자 수**: 모집인원이 얼마나 되는지, 그리고 현재까지의 지원자가 몇 명인지 확인해보세요. 이 정보를 통해 경쟁률을 추정할 수 있습니다.
+3. **동점자 처리 기준**: 동점자 처리 기준에 따라 추가적으로 합격자가 결정될 수도 있습니다.
+4. **추가 충원 절차**: 2차, 3차 충원 등이 있을 경우, 이 과정에서 합격할 가능성도 있습니다.
+5. **개인 성적의 변동성**: 수능 성적이 변동될 수 있으므로, 최종 결과를 기다리는 것이 가장 좋습니다.
+현재 상황에서는 낮은 확률로 보이나, 최종 결과가 발표되기 전까지는 포기하지 않는 것이 좋습니다. 합격 여부에 대한 공식적인 정보가 나올 때까지 기다리시는 것이 현명할 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1837610932599398</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에 대한 정보는 제공된 자료에서 직접 확인하기 어렵습니다. 하지만 일반적으로 대학별 학과별 입학 경쟁률과 평균 성적을 예측하는 방법은 다음과 같습니다:
+1. **최근 몇 년간의 입학성적 분석**: 동의대학교 법경찰행정학부의 최근 2-3년간의 정시 모집에서 합격한 지원자의 평균 성적을 확인할 수 있습니다.
+2. **모집인원과 지원자 수**: 이 정보를 통해 경쟁률을 계산하고, 이를 바탕으로 안정적인 합격 가능성을 예측할 수 있습니다.
+3. **학과 특성**: 법경찰행정학부는 일반적으로 사회과학 분야에 속하며, 해당 분야의 전형에서 국어와 사회 과목이 중요하게 작용하기 때문에 이들 과목의 성적이 중요한 역할을 합니다.
+4. **전형 요소**: 학생부교과성적, 면접 등 다양한 평가 요소를 고려해야 합니다.
+5. **예상 경쟁률**: 2023년 동의대학교 법경찰행정학부의 정시 모집에서의 경쟁률을 참고할 수 있습니다. 예를 들어, 1:400이라는 경쟁률이었다면, 2024년에도 비슷한 경쟁률을 유지할 가능성이 높습니다.
+6. **성적 목표 설정**: 안정적인 합격을 위해서는 최소 95-98등급의 성적이 필요하며, 문 닫고 들어갈 수 있는 수준은 100등급 이상이어야 합니다.
+**추천 방법:**
+- 동의대학교 입학정보 홈페이지를 확인하여 최근 몇 년간의 합격자 평균 성적을 참조하세요.
+- 동의대학교 입학관리팀에 직접 문의하여 최신 정보와 예상 경쟁률을 얻으세요.
+이러한 방법들을 통해 더 정확한 안정적인 합격 가능성을 파악할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2732430823529612</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 경우, 지원자의 성적 정보를 확인해보겠습니다.
+1. **보육가정상담학과**는 인문사회과학대학에 속하는 학과입니다.
+2. 이 학과의 모집단위는 "인문사회"이며, 해당 모집단위의 전형성적 산출방법은 다음과 같습니다:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+3. 동의대학교의 학생부종합전형에서의 등급 점수는 다음과 같이 변환됩니다:
+   - 5등급: 107점
+   - 6등급: 99점
+   - 7등급: 91점
+   - 8등급: 83점
+   - 9등급: 75점
+4. 5.33 등급은 8등급에 해당합니다.
+따라서, 5.33 등급을 가진 지원자는 동의대학교 보육가정상담학과에서 83점을 받게 됩니다.
+**결론**: 
+- 83점은 보육가정상담학과의 모집인원과 지원 인원에 따라 경쟁률이 매우 높을 수 있습니다.
+- 하지만, 이 점수만으로는 확실한 합격을 보장할 수 없습니다. 경쟁률, 지원자들의 성적 분포 등 다양한 요소가 고려되어야 합니다.
+따라서, 5.33 등급의 지원자가 동의대학교 보육가정상담학과에 합격할 가능성은 있지만, 확실한 것은 아닙니다. 최종 합격 여부는 여러 요인에 따라 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.1036983583154071</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표와 등록 과정이 다음과 같습니다:
+- **3차 충원 합격자 발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+- **3차 충원 합격자 등록**: 개별 전화 통보 시 안내
+이 정보만으로는 정확한 합격 가능성 예측은 어렵습니다. 하지만 몇 가지 고려사항이 있습니다:
+1. **예비 순위**: 예비 12번을 받았다는 것은 충원 과정에서 좋은 위치를 차지하고 있다는 점입니다.
+2. **합격자 발표 방식**: 3차 충원 합격자는 홈페이지를 통해 개별적으로 조회할 수 있습니다. 이로 인해 개인의 합격 여부는 직접 확인 가능합니다.
+3. **등록 기한**: 지정된 등록 기간 내에 반드시 등록해야 합니다. 지연될 경우 합격 취소될 수 있으므로 신속하게 대응해야 합니다.
+4. **합격 확률**: 충원 과정에서의 경쟁률과 모집인원이 결정되므로, 예비 순위가 높을수록 합격 가능성은 높아집니다.
+추천 사항:
+- 홈페이지를 통해 개별적으로 합격 여부를 확인합니다.
+- 등록 기한 내에 반드시 등록해야 합니다.
+- 등록 과정에서 발생할 수 있는 문제는 미리 대비하고 준비합니다.
+따라서, 현재 상황에서는 예비 12번을 받았다는 점만으로는 확실한 합격 여부를 판단하기 어렵습니다. 직접 홈페이지를 통해 확인하고, 지정된 기간 내에 등록해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2664218734555133</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 표준점수는 상당히 높은 점수입니다. 한국의 대학 수능 평균 점수가 약 3.0~3.5 정도로 추정되므로, 4.75는 매우 뛰어난 성적입니다.
+유아교육학과의 경우, 학생부종합전형을 비롯한 다양한 전형이 적용될 수 있지만, 수능 점수만으로 보면 상당히 유리합니다. 특히, 유아교육학과는 교직 관련 전공이므로 수능에서 국어와 사회 영역이 중요하게 작용할 것입니다.
+다음은 고려해야 할 몇 가지 포인트입니다:
+1. **학생부 성적**: 수능 점수 외에도 학생부 성적이 중요한 역할을 합니다. 특히 인성과 학업역량, 전공적합성을 평가하는 학생부종합전형에서는 학생부 성적이 중요합니다.
+2. **면접 및 서류평가**: 유아교육학과는 종종 면접이나 서류평가를 통해 지원자의 적합성과 인성을 평가하기 때문에, 이 부분에서도 좋은 점수를 받을 필요가 있습니다.
+3. **경쟁률**: 현재의 경쟁률과 모집인원을 고려해야 합니다. 유아교육학과는 많은 학생들이 지원하므로 경쟁률이 높을 수 있습니다.
+4. **추천서 및 기타 서류**: 추천서나 자기소개서 등 추가 서류도 중요합니다. 이 부분에서 좋은 내용을 작성하면 도움이 될 것입니다.
+결론적으로, 4.75라는 수능 점수는 유리한 위치에 있지만, 학생부 성적과 면접 및 서류평가 결과가 중요하게 작용할 것입니다. 따라서, 지원자의 전반적인 경쟁력을 고려하여 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1642874650450649</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현재는 아동학과로 분류됨)에 지원하실 경우, 수능 성적만으로 합격 확률을 판단하기는 어렵습니다. 하지만 몇 가지 정보를 바탕으로 추론해볼 수 있습니다:
+1. **수능 반영 비율**: 보육가정상담학과(아동학과)의 수능 반영 비율은 25%입니다 (국어, 수학, 영어, 탐구 중 상위 3개 영역).
+2. **최저합격선**: 보육가정상담학과의 최저합격선을 확인해야 합니다. 이 정보는 입학처 홈페이지나 동의대학교 입학 안내 페이지에서 확인할 수 있습니다.
+3. **수능 성적**: 귀하의 수능 환산등급이 4.16입니다. 이 등급은 상당히 좋은 점수로, 대부분의 학과에서는 충분한 경쟁력을 갖추고 있을 것입니다.
+4. **경쟁률**: 보육가정상담학과(아동학과)의 모집인원과 지원 인원을 고려해야 합니다. 이 정보도 입학 안내 페이지에서 확인할 수 있습니다.
+5. **등급 변동성**: 수능 등급은 점수 변동성이 있을 수 있으므로, 최종 등급이 조금 더 높아질 가능성도 있습니다.
+6. **추합 영향**: 추합 성적을 고려하면 합격 확률이 더욱 높아질 수 있습니다. 하지만 추합에서도 동일한 과목의 성적이 반영되므로, 이미 좋은 수능 성적을 가지고 있다면 이점은 크지 않을 것입니다.
+**결론적으로:**
+- 귀하의 4.16 환산등급은 보육가정상담학과(아동학과)에 충분한 경쟁력을 갖추고 있습니다.
+- 최저합격선을 넘으면서도, 모집인원과 지원 인원 사이의 비율을 고려해야 합니다.
+- 추합 성적까지 고려하면 합격 가능성은 더욱 높아질 것입니다.
+최종적으로는 동의대학교 입학 안내 페이지나 입학처에 문의하시면 정확한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.03242851099781986</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 소프ERT웨어융합학과는 모집이 되지 않습니다. 표에서 확인할 수 있듯이, 소프트웨어융합학과는 정시로 모집되지 않고 다른 학과들만 정시로 모집하고 있습니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 해당 학과가 정시모집으로 개설되는 것을 확인해야 합니다. 현재 정보에서는 그럴 가능성이 없습니다.
+소프트웨어공학부는 정시로 모집되고 있으며, 평균 등급에 대한 정보는 다음과 같습니다:
+- **전체 평균 등급**: 4.17 (국어 + 수학 + 탐구)
+- **수능 영역 평균 등급**:
+  - 국어: 3.82
+  - 수학: 4.00
+  - 탐구: 4.74
+이러한 정보를 바탕으로, 소프트웨어공학부에 지원하려는 경우 대략적인 평균 등급을 참고할 수 있습니다. 하지만 정확한 합격 가능성을 예측하기 위해서는 해당 학과의 경쟁률과 지원자의 개인 성적 등을 고려해야 합니다.
+더 자세한 정보나 변경 사항이 있는 경우에는 공식 홈페이지를 확인하거나 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>1.861608623704051e-07</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 나군 학생부종합(조기취업형계약학과전형)의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 세특 내용은 서류 평가에서 중요한 역할을 합니다.
+1. **면접 점수**: 면접에서는 지원동기, 학업역량, 전공적합성 등에 대한 질문이 제시되며, 이에 대한 답변을 통해 지원자의 적합성을 판단합니다. 하지만 서류 평가에서도 세특 내용이 중요하게 고려됩니다.
+2. **세특 내용**: 세특(창의적 체험활동)은 학생부에서 중요한 부분으로, 이를 통해 지원자의 창의성과 다양한 경험을 평가합니다. 세특 내용을 충분히 준비하고 구체적으로 기재하는 것이 중요합니다.
+3. **서류 준비**: 서류 제출에는 다음과 같은 항목이 포함될 수 있습니다.
+   - 고교 졸업(예정)자: 학생부 온라인 제공 동의자가 아닌 경우, 학교생활기록부 1부
+   - 검정고시 출신자: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부 등
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부 등
+따라서, 소프트웨어 융합과 관련된 세특 내용을 충분히 준비하고 구체적으로 기재하는 것이 중요합니다. 또한, 서류 제출 시 필요한 모든 서류를 정확하게 준비하여 제출해야 합니다.
+추가적으로, 동점자 처리 시에도 세특 내용이 중요한 역할을 하므로, 이를 잘 준비하면 유리한 위치에 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.007607254034508367</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어공학부의 최초합격자 발표 점수를 확인해보겠습니다.
+- **소프트웨어공학부**는 **가군 실기/실적(일반학생전형)** 모집단위에 해당합니다.
+- 가군 실기/실적(일반학생전형)의 경우, 수능성적이 100% 반영됩니다.
+수능 성적을 확인해보겠습니다:
+- **최초합격자 발표**에서 소프트웨어공학부의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 { 317.87 /  7.35 }입니다.
+이 점수를 참고하면, **4.08**의 성적은 최초합격자 발표 점수보다 높습니다 (최초합격자의 평균점수가 4.29였으므로).
+따라서, **4.08**의 수능 성적로는 소프트웨어공학부의 최초합격자는 어렵게 보입니다.
+하지만, 최종 합격 여부는 여러 요소가 고려되므로, 정확한 판단을 위해서는 전체 평균 점수와 경쟁률 등을 종합적으로 고려해야 합니다. 또한, 지원자의 개인적인 특성과 면접 등 추가 평가 항목도 중요한 역할을 하므로, 최종 합격 여부는 전형별로 다를 수 있습니다.
+결론적으로, **4.08**의 성적은 최초합격자 발표 점수보다 낮으므로, 최초합격자는 어렵지만, 충원합격 가능성은 있으니, 해당 모집단위에 대한 전체적인 평균 점수와 경쟁률을 고려해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.157460021347545</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집에서 소프트웨어융합학과의 경우, 학생부교과 성적 평균 5등급으로는 충분히 지원 가능할 것으로 보입니다. 하지만 최종 결정은 해당 학과의 모집요강 및 경쟁률 등 다양한 요인에 따라 달라질 수 있습니다.
+특히, 정시 모집에서는 학생부교과 성적 외에도 다른 평가 요소들이 반영되므로, 다음과 같은 점들을 고려해볼 필요가 있습니다:
+1. **학생부 교과성적**: 전반적인 성적이 중요합니다.
+2. **면접 및 서류평가**: 일부 학과에서는 면접이나 서류 평가가 포함될 수 있으므로 준비가 필요합니다.
+3. **경쟁률**: 해당 학과의 경쟁률을 고려해야 합니다.
+따라서, 정확한 판단을 위해서는 해당 학과의 모집요강을 꼭 확인하시고, 가능하다면 입학처에 직접 문의하는 것이 좋습니다. 필요하다면 추가 자료를 준비하거나 면접 등에서 좋은 인상을 남기는 것도 중요합니다.
+더 궁금하신 점이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2563914296094219</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학할 가능성을 평가해보겠습니다.
+1. **신소재공학과의 경쟁률 및 지원 인원**:
+   - 신소재공학과는 모집인원이 56명이고, 지원 인원은 81명입니다.
+   - 이에 따라 경쟁률은 약 1.45:1로 높지 않습니다.
+2. **성적 평균 및 표준편차**:
+   - 신소재공학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 399.26이고, 표준 편차는 16.29입니다.
+   - 지원자의 성적 4.28을 표준변환점수로 환산하면 다음과 같습니다:
+     \[
+     (4.28 - 399.26) / 16.29 = -23.57
+     \]
+     이는 매우 낮은 점수입니다.
+3. **성적 평가**:
+   - 신소재공학과의 성적이 4.28이라면, 이는 표준변환점수가 매우 낮은 수치로, 대부분의 합격자들보다 훨씬 낮습니다.
+   - 일반적으로 대학별로 특정 점수 이상을 요구하는 경우가 많으므로, 4.28이라는 성적만으로는 충분한 경쟁력을 갖추기 어렵다고 볼 수 있습니다.
+4. **결론**:
+   - 신소재공학과의 경쟁률이 낮고 모집인원도 적지만, 4.28이라는 성적이 매우 낮은 점수로 보아, 합격 가능성은 매우 낮습니다.
+   - 다른 전공이나 대학을 고려해보는 것이 좋을 것 같습니다.
+따라서, 신소재공학과에 진학하기 위해서는 더 높은 수능 성적을 준비하거나, 다른 전공이나 대학을 탐색하는 것이 현명할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1263371959441549</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서를 요구하지 않습니다. 
+수능(일반학생전형)은 주로 수능 성적을 기준으로 합격자를 선발합니다. 따라서 자기소개서는 필요하지 않고, 지원자는 다음과 같은 서류만 제출하면 됩니다:
+1. 고교 졸업(예정)자: 제출서류 없음 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음)
+2. 검정고시 출신자: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부
+3. 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부
+자기소개서가 필요 없는 이유는 수능(일반학생전형)에서는 주로 학생의 학업 능력과 잠재력을 수능 성적으로 평가하기 때문입니다. 따라서 지원자는 주요 과목의 성적을 잘 준비하고, 원서접수 마감일까지 온라인으로 접수를 완료하는 것이 중요합니다.
+자세한 내용은 동의대학교 입학 홈페이지 (http://ipsi.deu.ac.kr)를 참고하시거나 문의해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>6.916695510952122e-08</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확정적으로 입학 가능 여부를 판단하기 어렵습니다. 동의대학교의 정시 모집에서 수능 성적은 합격 기준을 만족하는 데 중요한 요소이지만, 다른 여러 요인도 고려됩니다.
+1. **모집 인원과 지원자 수**: 추가모집 시 모집 인원과 지원자의 수에 따라 경쟁률이 달라질 수 있습니다. 경쟁률이 낮아지면 합격 가능성은 높아지지만, 여전히 경쟁력 있는 성적을 보여야 합니다.
+2. **추가모집 시 기준**: 추가모집에서는 일반적으로 최저합격선보다 조금 더 높은 점수를 요구할 수 있습니다. 따라서 4.5라는 점수만으로는 확실한 합격을 보장받기 어렵습니다.
+3. **전형별 특성**: 각 모집단위마다 전형요소가 다르므로, 해당 모집단위의 전형요소를 잘 이해하고 준비해야 합니다. 예를 들어, 일부 모집단위에서는 수능 성적 외에 학생부 교과성적이 중요한 역할을 할 수 있습니다.
+4. **추가모집 시 기회**: 추가모집은 일반적으로 최저합격선을 충족하지 못한 지원자들에게 기회를 제공하기 때문에, 4.5라는 점수는 추가모집에서 합격 가능성에 영향을 줄 수 있습니다.
+따라서, 다음과 같은 조치들을 취해보시는 것이 좋습니다:
+- **추가모집 정보 확인**: 동의대학교 입학 홈페이지나 공지사항을 통해 추가모집의 기준 점수와 모집 인원 등을 확인하세요.
+- **전형 요소 준비**: 해당 모집단위의 전형요소를 잘 이해하고, 필요한 서류 및 자료들을 미리 준비해 두세요.
+- **면접 준비 (필요시)**: 일부 모집단위에서는 면접을 실시하므로, 면접 준비도 필요할 수 있습니다.
+결론적으로 4.5라는 점수만으로는 확실한 합격을 보장받기 어렵지만, 추가모집의 기회를 활용하여 입학 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2238606391285122</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 분자나노공학과)의 모집인원은 총 81명이며, 지원 인원이 많을 것으로 예상됩니다. 평균 등급으로 보았을 때, 경쟁률이 높아서 대략적으로 4등급 이상의 점수를 받는 것이 합격 가능성이 높다고 볼 수 있습니다.
+하지만 이는 단순 추정이며, 실제 합격 기준은 지원자의 성적 분포와 모집인원 등 여러 요소에 따라 달라질 수 있으므로 정확한 합격 기준을 알고 싶다면 동의대학교 입학처 웹사이트나 전형요강을 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.2035343169879686</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 특정 학과의 최저합격 점수가 작년에 비해 약간 높아진 경우도 있습니다. 하지만 작년 신소재공학과의 표준점수 평균이 447점보다 약간 높았다고 해서, 2024년에도 동일한 학과에서 표준점수가 447점으로 환산되는 가능성은 있습니다.
+다음은 고려해야 할 몇 가지 요소입니다:
+1. **모집인원 및 지원자 수**: 작년과 올해의 모집인원이나 지원자 수가 어떻게 달라졌는지 확인하세요. 지원자가 많아지면 경쟁률이 높아지고, 합격 점수가 상대적으로 높아질 수 있습니다.
+2. **수능 성적 분포**: 작년과 올해의 수능 성적이 어떻게 분포했는지 살펴보세요. 만약 올해 지원자의 수능 성적이 작년보다 더 높게 분포한다면, 합격 점수가 상대적으로 낮아질 수도 있습니다.
+3. **전형요소 비율**: 각 모집단위의 전형요소 반영비율이 어떻게 달라졌는지 확인하세요. 예를 들어 실기/실적 요인이 더 많이 반영되는 경우, 표준점수만으로 합격 여부를 판단하기보다는 전반적인 평가 결과도 중요해질 수 있습니다.
+4. **입학사정관의 평가**: 일부 모집단위에서는 입학사정관의 서류평가와 면접평가가 중요한 역할을 합니다. 이 부분에서 우수한 성적을 받았다면, 표준점수가 낮더라도 합격 가능성은 있습니다.
+5. **최종합격선**: 작년과 올해의 최종합격선을 비교하여, 작년보다 447점으로도 합격 가능성을 확인하세요.
+따라서, 2024년에도 표준점수가 447점으로 환산되는 가능성은 있습니다. 하지만 확실한 답변을 위해서는 동의대학교 입학관리 홈페이지나 관련 공지사항을 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.02117615635112784</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급으로 동의대학교 신소재공학과에 지원하기 위해서는 몇 가지 요인들을 고려해야 합니다:
+1. **모집단위별 수능성적 반영 비율**: 
+   - 신소재공학과는 공과대학 모집단위에 속합니다.
+   - 해당 모집단위의 수능성적 반영 비율은 100%입니다.
+2. **수능 성적 산출 방법**:
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+3. **가산점**:
+   - 수학(미적분 또는 기하) 응시자: 수학 취득 표준점수의 10% 가산점
+4. **최저합격선**:
+   - 동의대학교는 각 모집단위별로 최저합격선을 설정합니다.
+   - 신소재공학과의 경우, 4.3등급대에서 4.1~4.2 등급으로는 합격 가능성은 낮습니다.
+5. **경쟁률**:
+   - 동의대학교의 경쟁률이 높기 때문에, 현재 성적만으로는 어렵게 보입니다.
+6. **추가 지원 전략**:
+   - 서류평가와 면접 등 다른 평가 요소를 강화해야 합니다.
+   - 관련 활동이나 프로젝트 경험을 잘 준비하고 제출해야 합니다.
+결론적으로, 현재 4.1~4.2등급으로는 신소재공학과에 합격하기 어렵다고 판단됩니다. 하지만 추가적인 지원 전략을 통해 기회를 높일 수 있습니다. 동의대학교 입학 홈페이지나 관계부서에 문의하여 최신 정보와 자세한 조언을 받는 것이 좋습니다.
+추가로, 동의대학교 입학관리팀이나 학과 담당 교수님에게 직접 상담을 받아보시는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2322033802562178</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최저합격 기준을 정확히 제공하기 위해서는 해당 학과와 전형에 대한 가장 최신 정보가 필요합니다. 하지만, 일반적으로 수능(일반학생전형)으로 인공지능학과를 지원하려면 다음과 같은 성적 범위를 고려해야 합니다:
+- **국어**: 대략 100점 이상
+- **수학 (미적분 또는 기하)**: 대략 105점 이상
+- **영어**: 대략 4등급 이상
+- **탐구 영역**: 과목 중에서 두 개를 선택하여 최상위 점수를 얻어야 합니다. 예를 들어, 물리와 화학을 선택하면 각각의 표준점수가 높아야 합니다.
+특히 인공지능 관련 학과는 수학 성적이 중요하므로 수학에서 좋은 점수를 받는 것이 중요합니다. 또한 탐구 영역에서도 과학 분야를 선택하는 것이 유리할 수 있습니다.
+최종적인 최저합격 기준은 동의대학교 입학처가 공고한 정보에 따라 결정되므로, 해당 대학의 입학 홈페이지나 전형요강을 확인하시기 바랍니다. 또한, 최근 몇 년간의 합격자 성적 분석을 통해 더 정확한 예상 범위를 파악할 수 있습니다.
+추가적으로, 동의대학교의 공식 웹사이트 (http://ipsi.deu.ac.kr)에서 가장 최신 정보와 전형요강을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2538877418808432</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 국어, 수학, 영어 등급을 기준으로 지원자의 경쟁력을 평가합니다. 
+주요 정보:
+- **5.27**는 대략적으로 **수능 3개 영역(국어, 수학, 영어)의 등급 변환 점수를 합산한 값**입니다.
+- 동의대학교는 정시 모집에서 국어, 수학, 영어 등급을 기준으로 지원자를 선발합니다.
+2024년도 동의대학교 정시 모집에 대한 상세 정보:
+1. **모집단위별 경쟁률**: 각 모집단위별로 다른 경쟁률이 있습니다.
+2. **등급 변환 점수 평균 및 표준 편차**: 
+   - 국어, 수학, 영어 등급의 평균 변환 점수와 표준 편차가 제공됩니다.
+예를 들어, 특정 모집단위에서:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 105.3 / 표준 편차 8.7
+- **영어 등급**: 평균 B+ / 표준 편차 0.4
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 125.6 / 표준 편차 9.3
+이러한 정보를 바탕으로, 5.27 등급을 가진 지원자가 어느 정도 경쟁력을 갖추고 있는지 판단할 수 있습니다.
+**결론:**
+- **5.27 등급**: 이 점수는 대체로 중간 이상의 성적입니다.
+- **경쟁률과 모집인원**: 각 모집단위별 경쟁률이 다르므로, 특정 모집단위에서는 가능성이 있지만 다른 모집단위에서는 어려울 수 있습니다.
+따라서, 구체적인 모집단위와 경쟁률을 확인한 후에 최종 판단을 내리는 것이 좋습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학 홈페이지나 학교 관계자에게 문의하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1231830747917108</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 중등교육 기간 내에서 좋은 성적으로 보입니다. 그러나 정시 모집에서 소프트웨어공학부에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **모집인원과 경쟁률**: 소프트웨어공학부의 모집인원과 경쟁률을 확인해야 합니다. 경쟁률이 높다면, 4.2라는 점수로 합격하기는 어렵습니다.
+2. **전형요소 반영비율**: 정시 모집에서는 주로 수능 성적이 반영됩니다. 소프트웨어공학부의 경우 수능 국어(25%), 수학(미적분 또는 기하)(25%), 영어(25%), 탐구 영역(사회탐구 또는 과학탐구 - 2개 과목 합)(25%)가 반영됩니다.
+3. **수능 성적**: 수능 성적이 중요합니다. 특히 수학과 탐구 영역의 성적이 중요할 것입니다. 예를 들어, 수학(미적분 또는 기하) 응시자에게는 수학 취득 표준점수의 10% 가산점이 주어집니다.
+4. **면접 및 서류평가**: 일부 학과에서는 면접이나 서류 평가도 포함될 수 있습니다. 이 부분에서도 좋은 성적을 보여줘야 합니다.
+5. **추천서나 특별한 경력**: 특정 학과에서는 추천서나 특별한 경력을 요구할 수도 있습니다.
+따라서, 4.2라는 점수로 소프트웨어공학부에 지원하는 것은 가능하지만, 경쟁률이 높고 모집인원이 적기 때문에 매우 어려울 수 있습니다. 
+추천사항:
+- **모집요강과 전형요소 반영비율을 꼼꼼히 확인**: 정시 모집의 세부 요건을 확인하세요.
+- **수능 성적 분석**: 수능 성적이 좋은 곳에 집중하여 지원하는 것이 좋습니다. 특히 수학과 탐구 영역에서 높은 점수를 받는 것이 중요합니다.
+- **면접 준비**: 면접에서도 좋은 성적을 보여줄 수 있도록 준비하세요.
+결론적으로, 4.2라는 점수로 소프트웨어공학부에 지원하는 것은 가능하지만, 경쟁률과 모집인원 등을 고려하여 전략적으로 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.01414920773338604</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下信息：
+1. 同意大学（东义大学）的化学生物环境工程学部（化学、环境、应用化学）的具体录取标准。
+2. 您提供的3.92的成绩是否符合该专业的录取要求。
+根据您提供的信息和表格内容，我们可以进行如下分析：
+### 1. 化学生物环境工程学部的一般学生入学条件
+- 根据表格中的“나군(일반학생전형)”部分：
+  - 国语 + 数学 + 英语等级分数 + 探索标准分数（加权）
+具体来说，对于化学、环境和应用化学专业，通常会考虑以下因素：
+- **国语**：一般需要达到一定的标准。
+- **数学**：可能需要较高的成绩，特别是如果申请的是“数学(微积分或几何)”相关的课程。
+- **英语等级分数**：根据您的成绩3.92，这应该是一个不错的分数。在东义大学的评分体系中，3.92通常对应于英语等级6或7（具体取决于学校的评分标准）。
+- **探索科目**：需要选择两个科目，并且这些科目的成绩也需要达到一定的标准。
+### 2. 您的成绩分析
+假设您的成绩如下：
+- 国语：假设为4.0
+- 数学：假设为5.0
+- 英语等级分数：3.92（对应英语等级6或7）
+- 探索科目：假设选择物理和化学，且成绩分别为4.8和4.5
+### 3. 成绩计算
+根据东义大学的评分方法：
+\[ \text{总分} = 国语 + 数学 + 英语等级分数 + 探索标准分数（加权）\]
+假设探索科目各占0.1的权重，那么：
+\[ \text{总分} = 4.0 + 5.0 + 3.92 + (4.8 * 0.1) + (4.5 * 0.1)\]
+\[ \text{总分} = 4.0 + 5.0 + 3.92 + 0.48 + 0.45\]
+\[ \text{总分} = 13.85\]
+### 结论
+根据上述计算，您的成绩应该能够满足化学生物环境工程学部的一般学生入学条件。但是具体是否录取还需要参考东义大学的详细招生标准和当年的具体情况。
+建议您直接访问东义大学的官方网站或联系学校招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.004901231145070385</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 중학교 졸업과목 평균점수를 의미하는 것 같습니다. 하지만, 동의대학교 화학환경공학부에 지원하기 위해서는 수능 성적도 필요합니다.
+동의대학교 화학환경공학부는 일반적으로 수능 성적이 필수입니다. 수능 성적 반영 방식은 다음과 같습니다:
+1. **수능 반영 영역**: 국어, 수학(미적분 또는 기하), 영어, 탐구 영역 중 상위 3개 영역의 표준점수 및 등급 점수를 합산합니다.
+2. **가산점**: 수학(미적분 또는 기하) 응시자는 수학 표준점수에 10% 가산점이 부여됩니다.
+따라서, 수능 성적이 필요하며, 수능 성적과 중학교 졸업과목 평균 점수가 모두 고려됩니다. 
+**추가적인 조언:**
+- **수능 응시**: 수능을 반드시 응시해야 합니다.
+- **성적 분석**: 수능 성적과 중학교 졸업과목 평균 점수를 종합적으로 분석하여 지원 가능성을 판단하세요.
+- **모집단위 확인**: 화학환경공학부의 모집 단과대학과 계열을 정확히 확인하고, 해당 모집단위의 모집 인원과 지원 인원 등을 파악해보세요.
+만약 수능 성적이 부족하다면, 다른 전형(예: 실기/실적, 학생부종합 등)으로도 지원 가능합니다. 자세한 내용은 동의대학교 입학처 홈페이지를 참고하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.1337193970439125</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시전형에서 영화학과를 지원하셨다면, 학생부종합전형이나 실기/실적 전형을 통해 입학할 가능성은 있습니다. 하지만 성적이 4.2라는 점에서는 상대적으로 낮은 수준이므로, 다음과 같은 요소들을 고려해야 합니다:
+1. **학생부 종합 평가**: 학생부에서 보여주는 인성, 학업역량, 전공적합성 등이 중요합니다. 특히 영화학과는 창의성과 표현력이 요구되므로 이 부분을 잘 반영하고 있어야 합니다.
+2. **면접 성적**: 면접에서는 지원동기와 입학 후 계획, 학업역량 및 전공적합성을 평가받습니다. 준비를 철저히 하여 좋은 인상을 줄 수 있습니다.
+3. **추천서나 특별한 활동**: 추천서나 관련 활동 경력이 있다면 이는 큰 도움이 될 수 있습니다.
+4. **전형 요소 반영 비율**: 영화학과의 경우, 학생부종합전형에서는 서류 70%, 면접 30%가 반영되므로 서류 준비와 면접 준비 모두 중요합니다.
+5. **경쟁률**: 현재까지 공개된 정보로는 정확한 경쟁률을 알 수 없지만, 동의대학교의 경우 일반적으로 경쟁률이 높으므로 낮은 성적만으로 합격하기는 어렵습니다.
+6. **추가 지원 가능성**: 충원합격자 발표 시 기회를 살펴볼 수 있습니다.
+따라서 4.2라는 성적만으로는 확실한 합격을 보장할 수 없습니다. 하지만 잘 준비하고 노력한다면 좋은 결과를 얻을 수 있을 것입니다. 추가적으로 면접 준비와 서류 작성에 신경 쓰시고, 관련 활동이나 추천서 등을 활용해보세요.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.08970338992747458</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是翻译后的回答：
+面試流程如下：
+1. 进入候考室
+2. 确认身份
+3. 移动到考场前
+4. 进入考场
+5. 发表个人动机和学业计划
+6. 回答与学业能力、专业适应性相关的共同问题及问答环节
+7. 其他问题回答（提交文件的真实性验证等）
+8. 离场
+请参考以上流程进行准备。如果有任何疑问，可以访问[官网链接](https://ipsi.deu.ac.kr/main.do)获取更多信息。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.1990668875028394</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3545003198956866</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2835057460548753</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2107830648359558</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.319003032975281</v>
+      <c r="D305" t="n">
+        <v>0.2829297102621726</v>
       </c>
     </row>
   </sheetData>
